--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -1564,7 +1564,7 @@
     <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxMonth1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
